--- a/Independent Proj/hightdata.xlsx
+++ b/Independent Proj/hightdata.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagesularz/Desktop/School /Comp. Physiology/LabWork/comp_physiology/Independent Proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF0479E6-EB7B-BB48-A9B0-1477975BE081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567B7997-A139-4C4C-8CAC-EACB77AC6275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="22060" windowHeight="16700" xr2:uid="{5D59DC48-2A27-4749-9A30-0A9BFE5CE28D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -86,7 +86,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8AB218-C91D-2D48-9EE3-FB2C6B3DF247}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,7 +432,7 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,15 +440,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>2.9428571428571431</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <f>AVERAGE(B2:B3)</f>
+        <v>3.0276785714285719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -456,15 +460,19 @@
         <v>3.1125000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.1</v>
       </c>
       <c r="B4" s="1">
         <v>1.1666666666666667</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <f>AVERAGE(B4:B5)</f>
+        <v>1.2033333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.1</v>
       </c>
@@ -472,15 +480,19 @@
         <v>1.2400000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0.5</v>
       </c>
       <c r="B6" s="1">
         <v>0.71111111111111103</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
+        <f>AVERAGE(B6:B7)</f>
+        <v>0.75555555555555554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0.5</v>
       </c>
@@ -488,15 +500,19 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
+        <f>AVERAGE(B8:B9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1</v>
       </c>
